--- a/Area1.xlsx
+++ b/Area1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023CE7B2-1E83-482D-965A-22A7E17EC90E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA01AFE-C3F5-476D-94BE-58460E11920A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17250" yWindow="1770" windowWidth="18795" windowHeight="18510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>площади</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>Площадь здания</t>
-  </si>
-  <si>
-    <t>анеае</t>
   </si>
 </sst>
 </file>
@@ -364,15 +361,15 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -380,7 +377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -388,7 +385,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -396,7 +393,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -404,7 +401,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -412,15 +409,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>

--- a/Area1.xlsx
+++ b/Area1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA01AFE-C3F5-476D-94BE-58460E11920A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4475E150-A3A1-4536-B13C-B4C981A282F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17250" yWindow="1770" windowWidth="18795" windowHeight="18510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -361,7 +361,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,7 +382,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>700</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -390,7 +390,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>90</v>
+        <v>620</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -398,7 +398,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -406,7 +406,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
